--- a/涂料系统数据库-V1.1.xlsx
+++ b/涂料系统数据库-V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17625,15 +17625,15 @@
   <dimension ref="A1:F2592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
-    <col min="5" max="5" width="54.1083333333333" style="11" customWidth="1"/>
-    <col min="6" max="6" width="50.4333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.5045045045045" customWidth="1"/>
+    <col min="3" max="3" width="42.3783783783784" customWidth="1"/>
+    <col min="5" max="5" width="54.1081081081081" style="11" customWidth="1"/>
+    <col min="6" max="6" width="50.4324324324324" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
@@ -69374,8 +69374,8 @@
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="2" customWidth="1"/>
-    <col min="5" max="12" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6216216216216" style="2" customWidth="1"/>
+    <col min="5" max="12" width="16.3783783783784" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="3"/>
     <col min="15" max="15" width="9" style="4"/>
     <col min="16" max="16384" width="9" style="3"/>

--- a/涂料系统数据库-V1.1.xlsx
+++ b/涂料系统数据库-V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14605"/>
+    <workbookView windowWidth="22188" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17624,16 +17624,16 @@
   <sheetPr/>
   <dimension ref="A1:F2592"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="E453" sqref="E453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="22.5045045045045" customWidth="1"/>
-    <col min="3" max="3" width="42.3783783783784" customWidth="1"/>
-    <col min="5" max="5" width="54.1081081081081" style="11" customWidth="1"/>
-    <col min="6" max="6" width="50.4324324324324" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="42.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="54.1111111111111" style="11" customWidth="1"/>
+    <col min="6" max="6" width="50.4351851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
@@ -69374,8 +69374,8 @@
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6216216216216" style="2" customWidth="1"/>
-    <col min="5" max="12" width="16.3783783783784" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6203703703704" style="2" customWidth="1"/>
+    <col min="5" max="12" width="16.3796296296296" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="3"/>
     <col min="15" max="15" width="9" style="4"/>
     <col min="16" max="16384" width="9" style="3"/>
